--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -33,7 +33,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="183" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -96,7 +96,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,11 +576,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="364602112"/>
-        <c:axId val="364604032"/>
+        <c:axId val="396332416"/>
+        <c:axId val="396359936"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="364602112"/>
+        <c:axId val="396332416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,14 +626,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364604032"/>
+        <c:crossAx val="396359936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="364604032"/>
+        <c:axId val="396359936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -705,7 +705,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364602112"/>
+        <c:crossAx val="396332416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -952,19 +952,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
-        <v>43929</v>
+        <v>43949</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -576,11 +576,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="396332416"/>
-        <c:axId val="396359936"/>
+        <c:axId val="44965888"/>
+        <c:axId val="44967808"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="396332416"/>
+        <c:axId val="44965888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,14 +626,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396359936"/>
+        <c:crossAx val="44967808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396359936"/>
+        <c:axId val="44967808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -705,7 +705,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396332416"/>
+        <c:crossAx val="44965888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -953,7 +953,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -964,7 +964,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
-        <v>43949</v>
+        <v>43961</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1703,25 +1703,109 @@
         <v>999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="5">
+        <v>43951</v>
+      </c>
+      <c r="B95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="5">
+        <v>43952</v>
+      </c>
+      <c r="B96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="5">
+        <v>43953</v>
+      </c>
+      <c r="B97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="5">
+        <v>43954</v>
+      </c>
+      <c r="B98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="5">
+        <v>43955</v>
+      </c>
+      <c r="B99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="5">
+        <v>43956</v>
+      </c>
+      <c r="B100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="5">
+        <v>43957</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="5">
+        <v>43958</v>
+      </c>
+      <c r="B102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="5">
+        <v>43959</v>
+      </c>
+      <c r="B103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="5">
+        <v>43960</v>
+      </c>
+      <c r="B104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="5">
+        <v>43961</v>
+      </c>
+      <c r="B105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -138,7 +138,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="5B9BD5"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="1"/>
@@ -571,11 +571,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="137832320"/>
-        <c:axId val="137842688"/>
+        <c:axId val="234173184"/>
+        <c:axId val="234175104"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="137832320"/>
+        <c:axId val="234173184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,14 +621,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137842688"/>
+        <c:crossAx val="234175104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="137842688"/>
+        <c:axId val="234175104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -700,7 +700,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137832320"/>
+        <c:crossAx val="234173184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1658,7 +1658,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="3">
+        <v>43945</v>
+      </c>
+      <c r="B89" s="2">
+        <v>100</v>
+      </c>
+    </row>
     <row r="90" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="91" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="92" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -571,11 +571,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="234173184"/>
-        <c:axId val="234175104"/>
+        <c:axId val="233714432"/>
+        <c:axId val="233716352"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="234173184"/>
+        <c:axId val="233714432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,14 +621,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234175104"/>
+        <c:crossAx val="233716352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="234175104"/>
+        <c:axId val="233716352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -700,7 +700,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234173184"/>
+        <c:crossAx val="233714432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -948,7 +948,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1647,7 +1647,7 @@
         <v>43943</v>
       </c>
       <c r="B87" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -571,11 +571,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="233714432"/>
-        <c:axId val="233716352"/>
+        <c:axId val="226505472"/>
+        <c:axId val="226507392"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="233714432"/>
+        <c:axId val="226505472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,14 +621,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233716352"/>
+        <c:crossAx val="226507392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="233716352"/>
+        <c:axId val="226507392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -700,7 +700,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233714432"/>
+        <c:crossAx val="226505472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -948,7 +948,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1647,7 +1647,7 @@
         <v>43943</v>
       </c>
       <c r="B87" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -571,11 +571,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="226505472"/>
-        <c:axId val="226507392"/>
+        <c:axId val="227619584"/>
+        <c:axId val="227621504"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="226505472"/>
+        <c:axId val="227619584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,14 +621,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226507392"/>
+        <c:crossAx val="227621504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="226507392"/>
+        <c:axId val="227621504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -700,7 +700,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226505472"/>
+        <c:crossAx val="227619584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -948,7 +948,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1666,7 +1666,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="3">
+        <v>43946</v>
+      </c>
+      <c r="B90" s="2">
+        <v>100</v>
+      </c>
+    </row>
     <row r="91" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="92" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="93" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -571,11 +571,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="227619584"/>
-        <c:axId val="227621504"/>
+        <c:axId val="235881216"/>
+        <c:axId val="235883136"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="227619584"/>
+        <c:axId val="235881216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,14 +621,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227621504"/>
+        <c:crossAx val="235883136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="227621504"/>
+        <c:axId val="235883136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -700,7 +700,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227619584"/>
+        <c:crossAx val="235881216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1647,7 +1647,7 @@
         <v>43943</v>
       </c>
       <c r="B87" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -571,11 +571,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="235881216"/>
-        <c:axId val="235883136"/>
+        <c:axId val="264520448"/>
+        <c:axId val="264522368"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="235881216"/>
+        <c:axId val="264520448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,7 +599,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
@@ -621,14 +620,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235883136"/>
+        <c:crossAx val="264522368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="235883136"/>
+        <c:axId val="264522368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -673,7 +672,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -700,7 +698,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235881216"/>
+        <c:crossAx val="264520448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -945,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:B983"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1538,148 +1536,29 @@
         <v>424</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
-        <v>43930</v>
-      </c>
-      <c r="B74" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3">
-        <v>43931</v>
-      </c>
-      <c r="B75" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3">
-        <v>43932</v>
-      </c>
-      <c r="B76" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="3">
-        <v>43933</v>
-      </c>
-      <c r="B77" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="3">
-        <v>43934</v>
-      </c>
-      <c r="B78" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="3">
-        <v>43935</v>
-      </c>
-      <c r="B79" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="3">
-        <v>43936</v>
-      </c>
-      <c r="B80" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="3">
-        <v>43937</v>
-      </c>
-      <c r="B81" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="3">
-        <v>43938</v>
-      </c>
-      <c r="B82" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="3">
-        <v>43939</v>
-      </c>
-      <c r="B83" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="3">
-        <v>43940</v>
-      </c>
-      <c r="B84" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="3">
-        <v>43941</v>
-      </c>
-      <c r="B85" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="3">
-        <v>43942</v>
-      </c>
-      <c r="B86" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="3">
-        <v>43943</v>
-      </c>
-      <c r="B87" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="3">
-        <v>43944</v>
-      </c>
-      <c r="B88" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="3">
-        <v>43945</v>
-      </c>
-      <c r="B89" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="3">
-        <v>43946</v>
-      </c>
-      <c r="B90" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2567,23 +2446,6 @@
     <row r="981" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="982" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="983" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200521更新/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD222912-2306-5648-B51B-2A90231F8A8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13785" yWindow="240" windowWidth="20490" windowHeight="12300"/>
+    <workbookView xWindow="3760" yWindow="460" windowWidth="10000" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,12 +47,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,13 +100,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -117,6 +134,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -391,37 +414,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>43964</v>
+        <v>43969</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>43859</v>
       </c>
@@ -429,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>43860</v>
       </c>
@@ -437,7 +462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>43861</v>
       </c>
@@ -445,7 +470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>43862</v>
       </c>
@@ -453,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>43863</v>
       </c>
@@ -461,7 +486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>43864</v>
       </c>
@@ -469,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>43865</v>
       </c>
@@ -477,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>43866</v>
       </c>
@@ -485,7 +510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>43867</v>
       </c>
@@ -493,7 +518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>43868</v>
       </c>
@@ -501,7 +526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>43869</v>
       </c>
@@ -509,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>43870</v>
       </c>
@@ -517,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>43871</v>
       </c>
@@ -525,7 +550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>43872</v>
       </c>
@@ -533,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>43873</v>
       </c>
@@ -541,7 +566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>43874</v>
       </c>
@@ -549,7 +574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>43875</v>
       </c>
@@ -557,7 +582,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>43876</v>
       </c>
@@ -565,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>43877</v>
       </c>
@@ -573,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>43878</v>
       </c>
@@ -581,7 +606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>43879</v>
       </c>
@@ -589,7 +614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>43880</v>
       </c>
@@ -597,7 +622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>43881</v>
       </c>
@@ -605,7 +630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>43882</v>
       </c>
@@ -613,7 +638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>43883</v>
       </c>
@@ -621,7 +646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>43884</v>
       </c>
@@ -629,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>43885</v>
       </c>
@@ -637,7 +662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>43886</v>
       </c>
@@ -645,7 +670,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>43887</v>
       </c>
@@ -653,7 +678,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>43888</v>
       </c>
@@ -661,7 +686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>43889</v>
       </c>
@@ -669,7 +694,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>43890</v>
       </c>
@@ -677,7 +702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>43891</v>
       </c>
@@ -685,7 +710,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>43892</v>
       </c>
@@ -693,7 +718,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>43893</v>
       </c>
@@ -701,7 +726,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>43894</v>
       </c>
@@ -709,7 +734,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>43895</v>
       </c>
@@ -717,7 +742,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>43896</v>
       </c>
@@ -725,7 +750,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>43897</v>
       </c>
@@ -733,7 +758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>43898</v>
       </c>
@@ -741,7 +766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" ht="18">
       <c r="A43" s="1">
         <v>43899</v>
       </c>
@@ -749,7 +774,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>43900</v>
       </c>
@@ -757,7 +782,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>43901</v>
       </c>
@@ -765,7 +790,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>43902</v>
       </c>
@@ -773,7 +798,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>43903</v>
       </c>
@@ -781,7 +806,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>43904</v>
       </c>
@@ -789,7 +814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>43905</v>
       </c>
@@ -797,7 +822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>43906</v>
       </c>
@@ -805,7 +830,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>43907</v>
       </c>
@@ -813,7 +838,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>43908</v>
       </c>
@@ -821,7 +846,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>43909</v>
       </c>
@@ -829,7 +854,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>43910</v>
       </c>
@@ -837,7 +862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>43911</v>
       </c>
@@ -845,7 +870,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>43912</v>
       </c>
@@ -853,7 +878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>43913</v>
       </c>
@@ -861,7 +886,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>43914</v>
       </c>
@@ -869,7 +894,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>43915</v>
       </c>
@@ -877,7 +902,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>43916</v>
       </c>
@@ -885,7 +910,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>43917</v>
       </c>
@@ -893,7 +918,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>43918</v>
       </c>
@@ -901,7 +926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>43919</v>
       </c>
@@ -909,7 +934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>43920</v>
       </c>
@@ -917,7 +942,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>43921</v>
       </c>
@@ -925,7 +950,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>43922</v>
       </c>
@@ -933,7 +958,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>43923</v>
       </c>
@@ -941,7 +966,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>43924</v>
       </c>
@@ -949,7 +974,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>43925</v>
       </c>
@@ -957,7 +982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>43926</v>
       </c>
@@ -965,7 +990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>43927</v>
       </c>
@@ -973,7 +998,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>43928</v>
       </c>
@@ -981,7 +1006,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>43929</v>
       </c>
@@ -989,7 +1014,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>43930</v>
       </c>
@@ -997,7 +1022,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>43931</v>
       </c>
@@ -1005,7 +1030,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>43932</v>
       </c>
@@ -1013,7 +1038,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>43933</v>
       </c>
@@ -1021,7 +1046,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>43934</v>
       </c>
@@ -1029,7 +1054,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>43935</v>
       </c>
@@ -1037,7 +1062,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>43936</v>
       </c>
@@ -1045,7 +1070,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>43937</v>
       </c>
@@ -1053,7 +1078,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>43938</v>
       </c>
@@ -1061,7 +1086,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>43939</v>
       </c>
@@ -1069,7 +1094,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>43940</v>
       </c>
@@ -1077,7 +1102,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>43941</v>
       </c>
@@ -1085,7 +1110,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>43942</v>
       </c>
@@ -1093,7 +1118,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>43943</v>
       </c>
@@ -1101,7 +1126,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>43944</v>
       </c>
@@ -1109,7 +1134,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>43945</v>
       </c>
@@ -1117,7 +1142,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>43946</v>
       </c>
@@ -1125,7 +1150,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>43947</v>
       </c>
@@ -1133,7 +1158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>43948</v>
       </c>
@@ -1141,7 +1166,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>43949</v>
       </c>
@@ -1149,7 +1174,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>43950</v>
       </c>
@@ -1157,7 +1182,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>43951</v>
       </c>
@@ -1165,7 +1190,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>43952</v>
       </c>
@@ -1173,7 +1198,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>43953</v>
       </c>
@@ -1181,7 +1206,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>43954</v>
       </c>
@@ -1189,7 +1214,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>43955</v>
       </c>
@@ -1197,7 +1222,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>43956</v>
       </c>
@@ -1205,7 +1230,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2">
       <c r="A101" s="1">
         <v>43957</v>
       </c>
@@ -1213,7 +1238,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>43958</v>
       </c>
@@ -1221,7 +1246,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2">
       <c r="A103" s="1">
         <v>43959</v>
       </c>
@@ -1229,7 +1254,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>43960</v>
       </c>
@@ -1237,7 +1262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2">
       <c r="A105" s="1">
         <v>43961</v>
       </c>
@@ -1245,7 +1270,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>43962</v>
       </c>
@@ -1253,7 +1278,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2">
       <c r="A107" s="1">
         <v>43963</v>
       </c>
@@ -1261,13 +1286,59 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>43964</v>
       </c>
       <c r="B108" s="5">
         <v>118</v>
       </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B109" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B110" s="7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B111" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B112" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B113">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200521更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200522更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD222912-2306-5648-B51B-2A90231F8A8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B64B66-78D8-2340-BB20-9E3E8FAD688F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="460" windowWidth="10000" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17280" yWindow="460" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1335,10 +1335,28 @@
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B114" s="3">
+        <v>150</v>
+      </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B115" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B116">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200522更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200525更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B64B66-78D8-2340-BB20-9E3E8FAD688F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC2223-8E1E-454E-9B43-D3598022C109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="460" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="1400" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>43969</v>
+        <v>43973</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1356,6 +1356,14 @@
       </c>
       <c r="B116">
         <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B117" s="3">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200525更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200526更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC2223-8E1E-454E-9B43-D3598022C109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785F8957-C1D5-4B45-9E83-8A01B60993CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="1400" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1363,7 +1363,7 @@
         <v>43973</v>
       </c>
       <c r="B117" s="3">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200526更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200528更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785F8957-C1D5-4B45-9E83-8A01B60993CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4F70EA-A2A3-0C41-BEB5-16F161BF6141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="1400" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>43973</v>
+        <v>43979</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1364,6 +1364,38 @@
       </c>
       <c r="B117" s="3">
         <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B118" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B119" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B120" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B121">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200528更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200531更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4F70EA-A2A3-0C41-BEB5-16F161BF6141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEF4C6B-7685-854D-ACF6-5323951FA9E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="1400" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200531更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200601更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEF4C6B-7685-854D-ACF6-5323951FA9E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E37B821-5124-3F49-B168-5604798E92E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1400" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16960" yWindow="460" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200601更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200603更新2回め/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E37B821-5124-3F49-B168-5604798E92E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61939DBF-19DE-D840-9E21-80B70D985860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16960" yWindow="460" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>43977</v>
+        <v>43985</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1396,6 +1396,62 @@
       </c>
       <c r="B121">
         <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B122" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B123" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B124" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B125" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B126" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B127" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B128">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200603更新2回め/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200604更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61939DBF-19DE-D840-9E21-80B70D985860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AB277F-A2E4-9A44-A629-587F678FCBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16960" yWindow="460" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1452,6 +1452,14 @@
       </c>
       <c r="B128">
         <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B129" s="3">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200604更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200605更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AB277F-A2E4-9A44-A629-587F678FCBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13957ADB-1BF3-2E49-86EA-609194BCE607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16960" yWindow="460" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1462,6 +1462,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B130" s="3">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200605更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200608更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13957ADB-1BF3-2E49-86EA-609194BCE607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F21BE30-BB5F-3F40-8F2B-CF3C0B3A3622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16960" yWindow="460" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>43986</v>
+        <v>43990</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1469,6 +1469,33 @@
       <c r="B130" s="3">
         <v>70</v>
       </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B131" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B132" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B133" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200608更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F21BE30-BB5F-3F40-8F2B-CF3C0B3A3622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C6724-B780-474C-8306-51C3ECD9CD5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16960" yWindow="460" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1475,27 +1475,11 @@
         <v>43987</v>
       </c>
       <c r="B131" s="3">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="1">
-        <v>43988</v>
-      </c>
-      <c r="B132" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="1">
-        <v>43989</v>
-      </c>
-      <c r="B133" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="1"/>
+      <c r="A132" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10607"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200608更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200609更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C6724-B780-474C-8306-51C3ECD9CD5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A068C0D0-EEFD-334F-8D1A-DF9E353D45C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16960" yWindow="460" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="2120" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1479,7 +1479,28 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B132" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B134" s="3">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200609更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200610更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A068C0D0-EEFD-334F-8D1A-DF9E353D45C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647E6EDE-2B3B-6542-A15E-3D7C1A126107}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2120" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20200" yWindow="-20720" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1500,6 +1500,14 @@
       </c>
       <c r="B134" s="3">
         <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B135" s="3">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200610更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200611更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647E6EDE-2B3B-6542-A15E-3D7C1A126107}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21CCEA5-A3C3-CF4E-BE35-257F039DAAEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20200" yWindow="-20720" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12920" yWindow="1080" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1507,6 +1507,22 @@
         <v>43991</v>
       </c>
       <c r="B135" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B136" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B137" s="3">
         <v>52</v>
       </c>
     </row>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200611更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200617更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21CCEA5-A3C3-CF4E-BE35-257F039DAAEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCDCF7C-BCB4-5443-9839-05830EDB38A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="1080" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17900" yWindow="2120" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>43994</v>
+        <v>43999</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1524,6 +1524,46 @@
       </c>
       <c r="B137" s="3">
         <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B138" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B139" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B140" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B141" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B142" s="3">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200617更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200623更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCDCF7C-BCB4-5443-9839-05830EDB38A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1351646B-059D-494E-84FE-9D372D92A817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17900" yWindow="2120" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>43999</v>
+        <v>44005</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1564,6 +1564,54 @@
       </c>
       <c r="B142" s="3">
         <v>63</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B143" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B144" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B145" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B147">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B148">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200623更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200625更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1351646B-059D-494E-84FE-9D372D92A817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE44D3-1023-5642-98FB-4CC2F73996F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17900" yWindow="2120" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1612,6 +1612,22 @@
       </c>
       <c r="B148">
         <v>86</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B149">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B150">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200625更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200627更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE44D3-1023-5642-98FB-4CC2F73996F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7286ED90-231D-0248-97CF-7BC7A65A34E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17900" yWindow="2120" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1630,6 +1630,17 @@
         <v>48</v>
       </c>
     </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B151">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200627更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200629更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7286ED90-231D-0248-97CF-7BC7A65A34E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8393825B-77F2-5549-B2F8-E64D3F43ECD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17900" yWindow="2120" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1639,7 +1639,12 @@
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="1"/>
+      <c r="A152" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B152">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200629更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200701更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8393825B-77F2-5549-B2F8-E64D3F43ECD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FFA045-3548-CA41-82A4-E93B74940343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17900" yWindow="2120" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>44007</v>
+        <v>44013</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1645,6 +1645,36 @@
       <c r="B152">
         <v>39</v>
       </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B155">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Downloads/コロナ対策サイト稼働オリジナル/20200701更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200706更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FFA045-3548-CA41-82A4-E93B74940343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D755412A-1E28-404F-83F2-D4EF00FA358E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17900" yWindow="2120" windowWidth="15140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1880" yWindow="-20980" windowWidth="22600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>44013</v>
+        <v>44018</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1671,10 +1671,28 @@
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="1"/>
+      <c r="A157" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B157">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B158">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10705"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200706更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200708更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D755412A-1E28-404F-83F2-D4EF00FA358E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452D5922-9EFD-1449-A573-43EA21BCD932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1880" yWindow="-20980" windowWidth="22600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="500" windowWidth="24640" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1693,6 +1693,26 @@
       <c r="B158">
         <v>127</v>
       </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B159">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200708更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200709更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452D5922-9EFD-1449-A573-43EA21BCD932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0D619-14E8-1F4D-A741-1A5EAEFF12D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="500" windowWidth="24640" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8200" yWindow="560" windowWidth="24640" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:B163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>44019</v>
+        <v>44021</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1703,16 +1703,36 @@
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="1"/>
+      <c r="A160" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B160">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B161">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B162">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B163">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200709更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200710更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0D619-14E8-1F4D-A741-1A5EAEFF12D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99687B4D-3952-D942-BF16-BBD095A5ACDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="560" windowWidth="24640" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:B166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1732,6 +1732,30 @@
       </c>
       <c r="B163">
         <v>167</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B164">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B165">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B166">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200710更新/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yotemuku/Dropbox/週ひがF/コロナ対策サイト稼働オリジナル/20200716更新/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99687B4D-3952-D942-BF16-BBD095A5ACDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB82F9CE-A6D0-A840-8AF2-6977D7CAB0D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="560" windowWidth="24640" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17140" yWindow="-17780" windowWidth="19180" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B166"/>
+  <dimension ref="A1:B170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2">
-        <v>44022</v>
+        <v>44028</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1755,7 +1755,39 @@
         <v>44022</v>
       </c>
       <c r="B166">
-        <v>210</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B167">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B168">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B169">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B170">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
